--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-glucose.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-glucose.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T13:01:37+00:00</t>
+    <t>2024-09-18T13:56:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-glucose.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-glucose.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T13:56:13+00:00</t>
+    <t>2024-09-18T14:01:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-glucose.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-glucose.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T14:01:59+00:00</t>
+    <t>2024-09-18T14:11:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-glucose.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-glucose.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T14:11:02+00:00</t>
+    <t>2024-10-30T10:16:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-glucose.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-glucose.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T10:16:09+00:00</t>
+    <t>2024-10-30T10:20:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-glucose.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-glucose.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T10:20:03+00:00</t>
+    <t>2024-10-30T10:28:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-glucose.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-glucose.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T10:28:34+00:00</t>
+    <t>2024-10-30T10:31:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-glucose.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-glucose.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0-ballot</t>
+    <t>3.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T10:31:07+00:00</t>
+    <t>2024-10-30T10:47:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1888,7 +1888,7 @@
 </t>
   </si>
   <si>
-    <t>Dispositif utilisé pour l'observation
+    <t>Dispositif utilisé pour récolter l'information. Ce dispositif peut être l'application permettant de renseigner la valeur. 
 Si la mesure a été faite par un objet connecté (Profil PhdDevice), cette référence est obligatoire</t>
   </si>
   <si>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-glucose.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-glucose.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T10:47:34+00:00</t>
+    <t>2024-10-30T10:56:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-glucose.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-glucose.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T10:56:03+00:00</t>
+    <t>2024-10-30T13:21:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-glucose.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-glucose.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T13:21:16+00:00</t>
+    <t>2024-10-30T13:25:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-glucose.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-glucose.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T13:25:18+00:00</t>
+    <t>2024-10-30T13:40:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-glucose.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-glucose.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T13:40:48+00:00</t>
+    <t>2024-10-30T13:56:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-glucose.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-glucose.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T13:56:40+00:00</t>
+    <t>2024-10-30T13:57:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-glucose.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-glucose.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T13:57:24+00:00</t>
+    <t>2024-10-30T16:05:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-glucose.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-glucose.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T16:05:44+00:00</t>
+    <t>2024-10-30T16:09:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-glucose.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-glucose.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T16:09:37+00:00</t>
+    <t>2024-10-30T16:49:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-glucose.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-glucose.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T16:49:36+00:00</t>
+    <t>2024-10-30T17:29:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-glucose.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-glucose.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T17:29:46+00:00</t>
+    <t>2024-11-08T13:33:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-glucose.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-glucose.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-08T13:33:24+00:00</t>
+    <t>2024-11-08T13:57:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-glucose.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-glucose.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-08T13:57:59+00:00</t>
+    <t>2024-12-11T16:27:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-glucose.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-glucose.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T16:27:42+00:00</t>
+    <t>2024-12-11T16:36:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-glucose.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-glucose.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$131</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$130</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5061" uniqueCount="725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5023" uniqueCount="721">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T16:36:57+00:00</t>
+    <t>2024-12-11T16:39:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -979,19 +979,6 @@
   <si>
     <t>Extension sur le Nombre de jours. 
 Utilisé pour les mesures du taux de glucose interstitiel et l’index de gestion de glycémie.</t>
-  </si>
-  <si>
-    <t>Observation.extension:MesDiabetisType</t>
-  </si>
-  <si>
-    <t>MesDiabetisType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/mesures/StructureDefinition/mesures-diabetis-type}
-</t>
-  </si>
-  <si>
-    <t>Type de diabète</t>
   </si>
   <si>
     <t>Observation.modifierExtension</t>
@@ -2604,7 +2591,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP131"/>
+  <dimension ref="A1:AP130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -6985,41 +6972,43 @@
         <v>309</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="C37" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="N37" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="O37" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="M37" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>82</v>
       </c>
@@ -7055,19 +7044,19 @@
         <v>82</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>198</v>
+        <v>313</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -7091,7 +7080,7 @@
         <v>82</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>82</v>
@@ -7102,14 +7091,14 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -7122,25 +7111,23 @@
         <v>82</v>
       </c>
       <c r="I38" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J38" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="J38" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="K38" t="s" s="2">
-        <v>116</v>
+        <v>315</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>119</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>82</v>
@@ -7177,19 +7164,19 @@
         <v>82</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -7201,22 +7188,22 @@
         <v>105</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>82</v>
+        <v>319</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>82</v>
+        <v>320</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>107</v>
+        <v>321</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>82</v>
+        <v>322</v>
       </c>
       <c r="AP38" t="s" s="2">
         <v>82</v>
@@ -7224,14 +7211,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>82</v>
+        <v>324</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -7250,17 +7237,19 @@
         <v>94</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="O39" t="s" s="2">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -7309,7 +7298,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -7321,22 +7310,22 @@
         <v>105</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>106</v>
+        <v>330</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>326</v>
+        <v>82</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>82</v>
@@ -7344,14 +7333,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -7370,20 +7359,18 @@
         <v>94</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>333</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>82</v>
       </c>
@@ -7431,7 +7418,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -7443,19 +7430,19 @@
         <v>105</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
@@ -7466,44 +7453,46 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>339</v>
+        <v>82</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="J41" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>340</v>
+        <v>173</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="O41" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>82</v>
       </c>
@@ -7527,13 +7516,13 @@
         <v>82</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>82</v>
+        <v>231</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>82</v>
+        <v>348</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>82</v>
+        <v>349</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>82</v>
@@ -7551,34 +7540,34 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>105</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>334</v>
+        <v>106</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>82</v>
+        <v>351</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>82</v>
+        <v>354</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>82</v>
@@ -7586,10 +7575,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7600,31 +7589,31 @@
         <v>93</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>94</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>82</v>
@@ -7649,37 +7638,35 @@
         <v>82</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>231</v>
+        <v>177</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="AC42" s="2"/>
       <c r="AD42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>105</v>
@@ -7688,19 +7675,19 @@
         <v>106</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>354</v>
+        <v>82</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>355</v>
+        <v>82</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>82</v>
@@ -7708,12 +7695,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="C43" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="C43" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="D43" t="s" s="2">
         <v>82</v>
       </c>
@@ -7722,7 +7711,7 @@
         <v>93</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>94</v>
@@ -7737,16 +7726,16 @@
         <v>228</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>82</v>
@@ -7774,26 +7763,28 @@
         <v>177</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="AC43" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7814,13 +7805,13 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>82</v>
@@ -7828,26 +7819,24 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="C44" t="s" s="2">
-        <v>371</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>93</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>82</v>
@@ -7856,20 +7845,16 @@
         <v>82</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>228</v>
+        <v>109</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>360</v>
+        <v>110</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>363</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>82</v>
       </c>
@@ -7893,13 +7878,13 @@
         <v>82</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>177</v>
+        <v>82</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>364</v>
+        <v>82</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>365</v>
+        <v>82</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>82</v>
@@ -7917,19 +7902,19 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>359</v>
+        <v>112</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>82</v>
@@ -7938,13 +7923,13 @@
         <v>82</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>367</v>
+        <v>82</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>368</v>
+        <v>113</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>369</v>
+        <v>82</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>82</v>
@@ -7952,21 +7937,21 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>82</v>
@@ -7978,15 +7963,17 @@
         <v>82</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>82</v>
@@ -8023,31 +8010,31 @@
         <v>82</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>82</v>
@@ -8059,7 +8046,7 @@
         <v>82</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
@@ -8070,44 +8057,46 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>117</v>
+        <v>240</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>118</v>
+        <v>241</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="O46" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>82</v>
       </c>
@@ -8143,19 +8132,19 @@
         <v>82</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>123</v>
+        <v>244</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -8167,7 +8156,7 @@
         <v>105</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>82</v>
@@ -8176,10 +8165,10 @@
         <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>82</v>
+        <v>245</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>107</v>
+        <v>246</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -8190,10 +8179,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8201,35 +8190,31 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>240</v>
+        <v>110</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>82</v>
       </c>
@@ -8277,19 +8262,19 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>244</v>
+        <v>112</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>82</v>
@@ -8298,10 +8283,10 @@
         <v>82</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>245</v>
+        <v>82</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>246</v>
+        <v>113</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -8312,21 +8297,21 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>82</v>
@@ -8338,15 +8323,17 @@
         <v>82</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>82</v>
@@ -8383,31 +8370,31 @@
         <v>82</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="AD48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>82</v>
@@ -8419,7 +8406,7 @@
         <v>82</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -8430,50 +8417,52 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>117</v>
+        <v>253</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>118</v>
+        <v>254</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="O49" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>82</v>
+        <v>380</v>
       </c>
       <c r="S49" t="s" s="2">
         <v>82</v>
@@ -8503,31 +8492,31 @@
         <v>82</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>123</v>
+        <v>257</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>105</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>82</v>
@@ -8536,10 +8525,10 @@
         <v>82</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>82</v>
+        <v>258</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>107</v>
+        <v>259</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
@@ -8550,10 +8539,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="B50" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8561,13 +8550,13 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>93</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>82</v>
@@ -8576,26 +8565,24 @@
         <v>94</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>384</v>
+        <v>82</v>
       </c>
       <c r="S50" t="s" s="2">
         <v>82</v>
@@ -8637,7 +8624,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8658,10 +8645,10 @@
         <v>82</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
@@ -8672,10 +8659,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8683,13 +8670,13 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>93</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>82</v>
@@ -8698,24 +8685,26 @@
         <v>94</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>109</v>
+        <v>173</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="O51" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>82</v>
+        <v>385</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>82</v>
@@ -8757,7 +8746,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8778,10 +8767,10 @@
         <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -8792,10 +8781,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="B52" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8803,13 +8792,13 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>93</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>82</v>
@@ -8818,29 +8807,29 @@
         <v>94</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>173</v>
+        <v>109</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="N52" t="s" s="2">
         <v>272</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>389</v>
+        <v>82</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>82</v>
+        <v>385</v>
       </c>
       <c r="T52" t="s" s="2">
         <v>82</v>
@@ -8879,7 +8868,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8900,10 +8889,10 @@
         <v>82</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>82</v>
@@ -8914,10 +8903,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8940,19 +8929,19 @@
         <v>94</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>109</v>
+        <v>287</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>82</v>
@@ -8962,7 +8951,7 @@
         <v>82</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>389</v>
+        <v>82</v>
       </c>
       <c r="T53" t="s" s="2">
         <v>82</v>
@@ -9001,7 +8990,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -9022,10 +9011,10 @@
         <v>82</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
@@ -9036,10 +9025,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -9062,19 +9051,19 @@
         <v>94</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>287</v>
+        <v>109</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>82</v>
@@ -9123,7 +9112,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -9144,10 +9133,10 @@
         <v>82</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>82</v>
@@ -9158,24 +9147,24 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>82</v>
+        <v>393</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>93</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>82</v>
@@ -9184,19 +9173,19 @@
         <v>94</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>109</v>
+        <v>228</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>297</v>
+        <v>394</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>298</v>
+        <v>395</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>299</v>
+        <v>396</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>300</v>
+        <v>397</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>82</v>
@@ -9221,13 +9210,11 @@
         <v>82</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="Y55" s="2"/>
       <c r="Z55" t="s" s="2">
-        <v>82</v>
+        <v>398</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>82</v>
@@ -9245,10 +9232,10 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>301</v>
+        <v>392</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>93</v>
@@ -9260,66 +9247,62 @@
         <v>106</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>82</v>
+        <v>399</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>82</v>
+        <v>400</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>302</v>
+        <v>401</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>303</v>
+        <v>402</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>82</v>
+        <v>403</v>
       </c>
       <c r="AP55" t="s" s="2">
-        <v>82</v>
+        <v>404</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>397</v>
+        <v>82</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>93</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>228</v>
+        <v>109</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>398</v>
+        <v>110</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>401</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>82</v>
       </c>
@@ -9343,11 +9326,13 @@
         <v>82</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="Y56" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z56" t="s" s="2">
-        <v>402</v>
+        <v>82</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>82</v>
@@ -9365,56 +9350,56 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>396</v>
+        <v>112</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>403</v>
+        <v>82</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>404</v>
+        <v>82</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>405</v>
+        <v>82</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>406</v>
+        <v>113</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>407</v>
+        <v>82</v>
       </c>
       <c r="AP56" t="s" s="2">
-        <v>408</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>82</v>
@@ -9426,15 +9411,17 @@
         <v>82</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>82</v>
@@ -9471,31 +9458,31 @@
         <v>82</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>82</v>
@@ -9507,7 +9494,7 @@
         <v>82</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>82</v>
@@ -9518,14 +9505,14 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -9541,21 +9528,23 @@
         <v>82</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>117</v>
+        <v>240</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>118</v>
+        <v>241</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="O58" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>82</v>
       </c>
@@ -9591,19 +9580,19 @@
         <v>82</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="AD58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>123</v>
+        <v>244</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9615,7 +9604,7 @@
         <v>105</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>82</v>
@@ -9624,10 +9613,10 @@
         <v>82</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>82</v>
+        <v>245</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>107</v>
+        <v>246</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>82</v>
@@ -9638,10 +9627,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9652,7 +9641,7 @@
         <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>82</v>
@@ -9661,23 +9650,19 @@
         <v>82</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>240</v>
+        <v>110</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>82</v>
       </c>
@@ -9725,19 +9710,19 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>244</v>
+        <v>112</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>82</v>
@@ -9746,10 +9731,10 @@
         <v>82</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>245</v>
+        <v>82</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>246</v>
+        <v>113</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>82</v>
@@ -9760,21 +9745,21 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>82</v>
@@ -9786,15 +9771,17 @@
         <v>82</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>82</v>
@@ -9831,31 +9818,31 @@
         <v>82</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="AD60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>82</v>
@@ -9867,7 +9854,7 @@
         <v>82</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>82</v>
@@ -9878,21 +9865,21 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>82</v>
@@ -9901,21 +9888,23 @@
         <v>82</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>117</v>
+        <v>253</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>118</v>
+        <v>254</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="O61" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
       </c>
@@ -9951,31 +9940,31 @@
         <v>82</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="AD61" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>123</v>
+        <v>257</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>105</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>82</v>
@@ -9984,10 +9973,10 @@
         <v>82</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>82</v>
+        <v>258</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>107</v>
+        <v>259</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
@@ -9998,10 +9987,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -10009,7 +9998,7 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>93</v>
@@ -10024,20 +10013,18 @@
         <v>94</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>82</v>
       </c>
@@ -10085,7 +10072,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -10106,10 +10093,10 @@
         <v>82</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
@@ -10120,10 +10107,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -10131,7 +10118,7 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>93</v>
@@ -10146,18 +10133,20 @@
         <v>94</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>109</v>
+        <v>173</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="O63" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>82</v>
       </c>
@@ -10205,7 +10194,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -10226,10 +10215,10 @@
         <v>82</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
@@ -10240,10 +10229,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10251,7 +10240,7 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>93</v>
@@ -10266,19 +10255,19 @@
         <v>94</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>173</v>
+        <v>109</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="N64" t="s" s="2">
         <v>272</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>82</v>
@@ -10327,7 +10316,7 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -10348,10 +10337,10 @@
         <v>82</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>82</v>
@@ -10362,10 +10351,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10388,19 +10377,19 @@
         <v>94</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>109</v>
+        <v>287</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>82</v>
@@ -10449,7 +10438,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -10470,10 +10459,10 @@
         <v>82</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>82</v>
@@ -10484,10 +10473,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10510,19 +10499,19 @@
         <v>94</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>287</v>
+        <v>109</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>82</v>
@@ -10571,7 +10560,7 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10592,10 +10581,10 @@
         <v>82</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>82</v>
@@ -10606,10 +10595,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10617,13 +10606,13 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>93</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>82</v>
@@ -10632,19 +10621,19 @@
         <v>94</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>109</v>
+        <v>417</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>297</v>
+        <v>418</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>298</v>
+        <v>419</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>299</v>
+        <v>420</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>300</v>
+        <v>421</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>82</v>
@@ -10693,7 +10682,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>301</v>
+        <v>416</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10705,22 +10694,22 @@
         <v>105</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>106</v>
+        <v>330</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>82</v>
+        <v>422</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>302</v>
+        <v>423</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>303</v>
+        <v>424</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>82</v>
+        <v>425</v>
       </c>
       <c r="AP67" t="s" s="2">
         <v>82</v>
@@ -10728,10 +10717,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10739,13 +10728,13 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>82</v>
@@ -10754,20 +10743,18 @@
         <v>94</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>425</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>82</v>
       </c>
@@ -10815,34 +10802,34 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>105</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>426</v>
+        <v>82</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>427</v>
+        <v>401</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="AP68" t="s" s="2">
         <v>82</v>
@@ -10850,21 +10837,21 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>82</v>
+        <v>433</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>82</v>
@@ -10876,18 +10863,20 @@
         <v>94</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="O69" s="2"/>
+        <v>437</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>438</v>
+      </c>
       <c r="P69" t="s" s="2">
         <v>82</v>
       </c>
@@ -10935,34 +10924,34 @@
         <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>105</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>82</v>
+        <v>439</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>405</v>
+        <v>440</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="AP69" t="s" s="2">
         <v>82</v>
@@ -10970,24 +10959,24 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>93</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>82</v>
@@ -10996,19 +10985,19 @@
         <v>94</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>82</v>
@@ -11057,7 +11046,7 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -11066,25 +11055,25 @@
         <v>93</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>105</v>
+        <v>450</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>334</v>
+        <v>451</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="AP70" t="s" s="2">
         <v>82</v>
@@ -11092,24 +11081,24 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>448</v>
+        <v>82</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>93</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>82</v>
@@ -11118,20 +11107,18 @@
         <v>94</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>449</v>
+        <v>131</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>453</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>82</v>
       </c>
@@ -11179,7 +11166,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -11188,25 +11175,25 @@
         <v>93</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>454</v>
+        <v>105</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>455</v>
+        <v>106</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>456</v>
+        <v>82</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="AP71" t="s" s="2">
         <v>82</v>
@@ -11214,10 +11201,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11228,7 +11215,7 @@
         <v>80</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>82</v>
@@ -11240,18 +11227,20 @@
         <v>94</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>131</v>
+        <v>464</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="O72" s="2"/>
+        <v>328</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>467</v>
+      </c>
       <c r="P72" t="s" s="2">
         <v>82</v>
       </c>
@@ -11299,34 +11288,34 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>105</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>106</v>
+        <v>330</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>82</v>
+        <v>468</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="AP72" t="s" s="2">
         <v>82</v>
@@ -11334,10 +11323,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11348,10 +11337,10 @@
         <v>80</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>82</v>
@@ -11360,19 +11349,19 @@
         <v>94</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>332</v>
+        <v>475</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>82</v>
@@ -11421,45 +11410,45 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>105</v>
+        <v>477</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>334</v>
+        <v>106</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>472</v>
+        <v>82</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>82</v>
+        <v>478</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>475</v>
+        <v>82</v>
       </c>
       <c r="AP73" t="s" s="2">
-        <v>82</v>
+        <v>481</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11473,29 +11462,25 @@
         <v>93</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>477</v>
+        <v>109</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>478</v>
+        <v>110</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>480</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>82</v>
       </c>
@@ -11543,7 +11528,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>476</v>
+        <v>112</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11552,47 +11537,47 @@
         <v>93</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>481</v>
+        <v>82</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>482</v>
+        <v>82</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>483</v>
+        <v>82</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>484</v>
+        <v>113</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP74" t="s" s="2">
-        <v>485</v>
+        <v>82</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>82</v>
@@ -11604,15 +11589,17 @@
         <v>82</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>82</v>
@@ -11649,31 +11636,31 @@
         <v>82</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="AC75" t="s" s="2">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="AD75" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>82</v>
@@ -11685,7 +11672,7 @@
         <v>82</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>82</v>
@@ -11696,21 +11683,21 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>82</v>
@@ -11719,21 +11706,23 @@
         <v>82</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>116</v>
+        <v>485</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>117</v>
+        <v>486</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>118</v>
+        <v>487</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="O76" s="2"/>
+        <v>488</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>489</v>
+      </c>
       <c r="P76" t="s" s="2">
         <v>82</v>
       </c>
@@ -11769,31 +11758,31 @@
         <v>82</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="AC76" t="s" s="2">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="AD76" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>123</v>
+        <v>490</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>105</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>82</v>
@@ -11802,10 +11791,10 @@
         <v>82</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>82</v>
+        <v>491</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>107</v>
+        <v>492</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>82</v>
@@ -11816,10 +11805,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11836,30 +11825,32 @@
         <v>82</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="J77" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>489</v>
+        <v>173</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>492</v>
+        <v>272</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>497</v>
+      </c>
       <c r="R77" t="s" s="2">
         <v>82</v>
       </c>
@@ -11879,13 +11870,13 @@
         <v>82</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>82</v>
+        <v>231</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>82</v>
+        <v>498</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>82</v>
+        <v>499</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>82</v>
@@ -11903,7 +11894,7 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11924,10 +11915,10 @@
         <v>82</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>82</v>
@@ -11938,10 +11929,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11958,32 +11949,30 @@
         <v>82</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="J78" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>173</v>
+        <v>109</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="N78" t="s" s="2">
         <v>272</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q78" t="s" s="2">
-        <v>501</v>
-      </c>
+      <c r="Q78" s="2"/>
       <c r="R78" t="s" s="2">
         <v>82</v>
       </c>
@@ -12003,13 +11992,13 @@
         <v>82</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>231</v>
+        <v>82</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>502</v>
+        <v>82</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>503</v>
+        <v>82</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>82</v>
@@ -12027,7 +12016,7 @@
         <v>82</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -12048,10 +12037,10 @@
         <v>82</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>82</v>
@@ -12062,10 +12051,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -12073,7 +12062,7 @@
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>93</v>
@@ -12088,19 +12077,19 @@
         <v>94</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>272</v>
+        <v>513</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>82</v>
@@ -12110,7 +12099,7 @@
         <v>82</v>
       </c>
       <c r="S79" t="s" s="2">
-        <v>82</v>
+        <v>515</v>
       </c>
       <c r="T79" t="s" s="2">
         <v>82</v>
@@ -12149,7 +12138,7 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -12158,7 +12147,7 @@
         <v>93</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>105</v>
+        <v>517</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>106</v>
@@ -12170,10 +12159,10 @@
         <v>82</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>82</v>
@@ -12184,10 +12173,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12210,19 +12199,19 @@
         <v>94</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>82</v>
@@ -12232,7 +12221,7 @@
         <v>82</v>
       </c>
       <c r="S80" t="s" s="2">
-        <v>519</v>
+        <v>82</v>
       </c>
       <c r="T80" t="s" s="2">
         <v>82</v>
@@ -12247,13 +12236,13 @@
         <v>82</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>82</v>
+        <v>231</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>82</v>
+        <v>524</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>82</v>
+        <v>524</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>82</v>
@@ -12271,7 +12260,7 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -12280,7 +12269,7 @@
         <v>93</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>521</v>
+        <v>105</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>106</v>
@@ -12292,10 +12281,10 @@
         <v>82</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>82</v>
@@ -12306,10 +12295,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12317,34 +12306,34 @@
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>93</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>82</v>
@@ -12369,13 +12358,13 @@
         <v>82</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>231</v>
+        <v>153</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>82</v>
@@ -12393,7 +12382,7 @@
         <v>82</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -12402,7 +12391,7 @@
         <v>93</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>105</v>
+        <v>534</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>106</v>
@@ -12414,10 +12403,10 @@
         <v>82</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>512</v>
+        <v>107</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>82</v>
@@ -12428,10 +12417,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12445,7 +12434,7 @@
         <v>93</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>82</v>
@@ -12454,20 +12443,16 @@
         <v>82</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>228</v>
+        <v>109</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>532</v>
+        <v>110</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>535</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>82</v>
       </c>
@@ -12491,13 +12476,13 @@
         <v>82</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>153</v>
+        <v>82</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>536</v>
+        <v>82</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>537</v>
+        <v>82</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>82</v>
@@ -12515,7 +12500,7 @@
         <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>531</v>
+        <v>112</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -12524,10 +12509,10 @@
         <v>93</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>538</v>
+        <v>82</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>82</v>
@@ -12536,10 +12521,10 @@
         <v>82</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>539</v>
+        <v>113</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>82</v>
@@ -12550,21 +12535,21 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>82</v>
@@ -12576,15 +12561,17 @@
         <v>82</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N83" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>82</v>
@@ -12621,31 +12608,31 @@
         <v>82</v>
       </c>
       <c r="AB83" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="AC83" t="s" s="2">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="AD83" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>82</v>
@@ -12657,7 +12644,7 @@
         <v>82</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>82</v>
@@ -12668,14 +12655,14 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -12691,21 +12678,23 @@
         <v>82</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>117</v>
+        <v>240</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>118</v>
+        <v>241</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="O84" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="P84" t="s" s="2">
         <v>82</v>
       </c>
@@ -12741,19 +12730,19 @@
         <v>82</v>
       </c>
       <c r="AB84" t="s" s="2">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="AC84" t="s" s="2">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="AD84" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>123</v>
+        <v>244</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12765,7 +12754,7 @@
         <v>105</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>82</v>
@@ -12774,10 +12763,10 @@
         <v>82</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>82</v>
+        <v>245</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>107</v>
+        <v>246</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>82</v>
@@ -12788,10 +12777,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12802,7 +12791,7 @@
         <v>80</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>82</v>
@@ -12811,23 +12800,19 @@
         <v>82</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>240</v>
+        <v>110</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>82</v>
       </c>
@@ -12875,19 +12860,19 @@
         <v>82</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>244</v>
+        <v>112</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>82</v>
@@ -12896,10 +12881,10 @@
         <v>82</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>245</v>
+        <v>82</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>246</v>
+        <v>113</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>82</v>
@@ -12910,21 +12895,21 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>82</v>
@@ -12936,15 +12921,17 @@
         <v>82</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N86" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>82</v>
@@ -12981,31 +12968,31 @@
         <v>82</v>
       </c>
       <c r="AB86" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="AC86" t="s" s="2">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="AD86" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>82</v>
@@ -13017,7 +13004,7 @@
         <v>82</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>82</v>
@@ -13028,21 +13015,21 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>82</v>
@@ -13051,21 +13038,23 @@
         <v>82</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>117</v>
+        <v>253</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>118</v>
+        <v>254</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="O87" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="P87" t="s" s="2">
         <v>82</v>
       </c>
@@ -13101,31 +13090,31 @@
         <v>82</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="AC87" t="s" s="2">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="AD87" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>123</v>
+        <v>257</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>105</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>82</v>
@@ -13134,10 +13123,10 @@
         <v>82</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>82</v>
+        <v>258</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>107</v>
+        <v>259</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>82</v>
@@ -13148,10 +13137,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13159,7 +13148,7 @@
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>93</v>
@@ -13174,20 +13163,18 @@
         <v>94</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>82</v>
       </c>
@@ -13235,7 +13222,7 @@
         <v>82</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
@@ -13256,10 +13243,10 @@
         <v>82</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>82</v>
@@ -13270,10 +13257,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13281,7 +13268,7 @@
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>93</v>
@@ -13296,18 +13283,20 @@
         <v>94</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>109</v>
+        <v>173</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="O89" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="P89" t="s" s="2">
         <v>82</v>
       </c>
@@ -13355,7 +13344,7 @@
         <v>82</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
@@ -13376,10 +13365,10 @@
         <v>82</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>82</v>
@@ -13390,10 +13379,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13401,7 +13390,7 @@
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>93</v>
@@ -13416,19 +13405,19 @@
         <v>94</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>173</v>
+        <v>109</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="N90" t="s" s="2">
         <v>272</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>82</v>
@@ -13477,7 +13466,7 @@
         <v>82</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
@@ -13498,10 +13487,10 @@
         <v>82</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>82</v>
@@ -13512,10 +13501,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13538,19 +13527,19 @@
         <v>94</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>109</v>
+        <v>287</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>82</v>
@@ -13599,7 +13588,7 @@
         <v>82</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -13620,10 +13609,10 @@
         <v>82</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>82</v>
@@ -13634,10 +13623,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13660,19 +13649,19 @@
         <v>94</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>287</v>
+        <v>109</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>82</v>
@@ -13721,7 +13710,7 @@
         <v>82</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
@@ -13742,10 +13731,10 @@
         <v>82</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>82</v>
@@ -13756,21 +13745,21 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>82</v>
+        <v>548</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>82</v>
@@ -13779,22 +13768,22 @@
         <v>82</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>109</v>
+        <v>228</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>297</v>
+        <v>549</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>298</v>
+        <v>550</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>299</v>
+        <v>551</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>300</v>
+        <v>552</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>82</v>
@@ -13819,13 +13808,13 @@
         <v>82</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>82</v>
+        <v>153</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>82</v>
+        <v>553</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>82</v>
+        <v>554</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>82</v>
@@ -13843,13 +13832,13 @@
         <v>82</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>301</v>
+        <v>547</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>105</v>
@@ -13861,31 +13850,31 @@
         <v>82</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>82</v>
+        <v>555</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>302</v>
+        <v>556</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>303</v>
+        <v>557</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP93" t="s" s="2">
-        <v>82</v>
+        <v>558</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>552</v>
+        <v>82</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
@@ -13904,19 +13893,19 @@
         <v>82</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>228</v>
+        <v>560</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>554</v>
+        <v>562</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>82</v>
@@ -13941,13 +13930,13 @@
         <v>82</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>153</v>
+        <v>82</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>557</v>
+        <v>82</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>558</v>
+        <v>82</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>82</v>
@@ -13965,7 +13954,7 @@
         <v>82</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
@@ -13983,27 +13972,27 @@
         <v>82</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>559</v>
+        <v>82</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP94" t="s" s="2">
-        <v>562</v>
+        <v>82</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -14014,7 +14003,7 @@
         <v>80</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>82</v>
@@ -14026,20 +14015,18 @@
         <v>82</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>564</v>
+        <v>228</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>568</v>
-      </c>
+        <v>570</v>
+      </c>
+      <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>82</v>
       </c>
@@ -14063,13 +14050,13 @@
         <v>82</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>82</v>
+        <v>163</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>82</v>
+        <v>571</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>82</v>
+        <v>572</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>82</v>
@@ -14087,13 +14074,13 @@
         <v>82</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>105</v>
@@ -14105,27 +14092,27 @@
         <v>82</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>82</v>
+        <v>573</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP95" t="s" s="2">
-        <v>82</v>
+        <v>576</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -14139,7 +14126,7 @@
         <v>93</v>
       </c>
       <c r="H96" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I96" t="s" s="2">
         <v>82</v>
@@ -14151,15 +14138,17 @@
         <v>228</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="O96" s="2"/>
+        <v>580</v>
+      </c>
+      <c r="O96" t="s" s="2">
+        <v>581</v>
+      </c>
       <c r="P96" t="s" s="2">
         <v>82</v>
       </c>
@@ -14183,13 +14172,11 @@
         <v>82</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>575</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="Y96" s="2"/>
       <c r="Z96" t="s" s="2">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>82</v>
@@ -14207,7 +14194,7 @@
         <v>82</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
@@ -14225,27 +14212,27 @@
         <v>82</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>577</v>
+        <v>82</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP96" t="s" s="2">
-        <v>580</v>
+        <v>82</v>
       </c>
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14259,7 +14246,7 @@
         <v>93</v>
       </c>
       <c r="H97" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I97" t="s" s="2">
         <v>82</v>
@@ -14268,20 +14255,18 @@
         <v>82</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>228</v>
+        <v>586</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>585</v>
-      </c>
+        <v>589</v>
+      </c>
+      <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>82</v>
       </c>
@@ -14305,11 +14290,13 @@
         <v>82</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="Y97" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z97" t="s" s="2">
-        <v>586</v>
+        <v>82</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>82</v>
@@ -14327,7 +14314,7 @@
         <v>82</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
@@ -14339,33 +14326,33 @@
         <v>105</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>106</v>
+        <v>330</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>82</v>
+        <v>590</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP97" t="s" s="2">
-        <v>82</v>
+        <v>593</v>
       </c>
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14379,7 +14366,7 @@
         <v>93</v>
       </c>
       <c r="H98" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I98" t="s" s="2">
         <v>82</v>
@@ -14388,16 +14375,16 @@
         <v>82</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -14447,7 +14434,7 @@
         <v>82</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -14459,33 +14446,33 @@
         <v>105</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP98" t="s" s="2">
-        <v>597</v>
+        <v>602</v>
       </c>
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14496,10 +14483,10 @@
         <v>80</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H99" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I99" t="s" s="2">
         <v>82</v>
@@ -14508,18 +14495,20 @@
         <v>82</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="O99" s="2"/>
+        <v>607</v>
+      </c>
+      <c r="O99" t="s" s="2">
+        <v>608</v>
+      </c>
       <c r="P99" t="s" s="2">
         <v>82</v>
       </c>
@@ -14567,45 +14556,45 @@
         <v>82</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>105</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>334</v>
+        <v>609</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>603</v>
+        <v>82</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP99" t="s" s="2">
-        <v>606</v>
+        <v>82</v>
       </c>
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14616,7 +14605,7 @@
         <v>80</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>82</v>
@@ -14628,20 +14617,16 @@
         <v>82</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>608</v>
+        <v>109</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>609</v>
+        <v>110</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="O100" t="s" s="2">
-        <v>612</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="N100" s="2"/>
+      <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
         <v>82</v>
       </c>
@@ -14689,19 +14674,19 @@
         <v>82</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>607</v>
+        <v>112</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>613</v>
+        <v>82</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>82</v>
@@ -14710,10 +14695,10 @@
         <v>82</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>614</v>
+        <v>82</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>615</v>
+        <v>113</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>82</v>
@@ -14724,21 +14709,21 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>82</v>
@@ -14750,15 +14735,17 @@
         <v>82</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N101" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
         <v>82</v>
@@ -14795,31 +14782,31 @@
         <v>82</v>
       </c>
       <c r="AB101" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="AC101" t="s" s="2">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="AD101" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>82</v>
@@ -14831,7 +14818,7 @@
         <v>82</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>82</v>
@@ -14842,14 +14829,14 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>115</v>
+        <v>615</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
@@ -14862,24 +14849,26 @@
         <v>82</v>
       </c>
       <c r="I102" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K102" t="s" s="2">
         <v>116</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>117</v>
+        <v>616</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>118</v>
+        <v>617</v>
       </c>
       <c r="N102" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="O102" s="2"/>
+      <c r="O102" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="P102" t="s" s="2">
         <v>82</v>
       </c>
@@ -14915,19 +14904,19 @@
         <v>82</v>
       </c>
       <c r="AB102" t="s" s="2">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="AC102" t="s" s="2">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="AD102" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>123</v>
+        <v>618</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -14962,46 +14951,44 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>619</v>
+        <v>82</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>116</v>
+        <v>620</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="O103" t="s" s="2">
-        <v>316</v>
-      </c>
+        <v>623</v>
+      </c>
+      <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
         <v>82</v>
       </c>
@@ -15049,19 +15036,19 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>105</v>
+        <v>624</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>124</v>
+        <v>625</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>82</v>
@@ -15070,10 +15057,10 @@
         <v>82</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>82</v>
+        <v>626</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>107</v>
+        <v>627</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>82</v>
@@ -15084,10 +15071,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -15110,16 +15097,16 @@
         <v>82</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -15169,7 +15156,7 @@
         <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -15178,10 +15165,10 @@
         <v>93</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>82</v>
@@ -15190,7 +15177,7 @@
         <v>82</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>631</v>
@@ -15230,7 +15217,7 @@
         <v>82</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>624</v>
+        <v>228</v>
       </c>
       <c r="L105" t="s" s="2">
         <v>633</v>
@@ -15239,9 +15226,11 @@
         <v>634</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="O105" s="2"/>
+        <v>635</v>
+      </c>
+      <c r="O105" t="s" s="2">
+        <v>636</v>
+      </c>
       <c r="P105" t="s" s="2">
         <v>82</v>
       </c>
@@ -15265,13 +15254,13 @@
         <v>82</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>82</v>
+        <v>177</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>82</v>
+        <v>637</v>
       </c>
       <c r="Z105" t="s" s="2">
-        <v>82</v>
+        <v>638</v>
       </c>
       <c r="AA105" t="s" s="2">
         <v>82</v>
@@ -15298,22 +15287,22 @@
         <v>93</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>628</v>
+        <v>105</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>629</v>
+        <v>106</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>82</v>
+        <v>639</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>630</v>
+        <v>640</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>635</v>
+        <v>557</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>82</v>
@@ -15324,10 +15313,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15338,7 +15327,7 @@
         <v>80</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H106" t="s" s="2">
         <v>82</v>
@@ -15353,16 +15342,16 @@
         <v>228</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="O106" t="s" s="2">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>82</v>
@@ -15387,37 +15376,37 @@
         <v>82</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>177</v>
+        <v>231</v>
       </c>
       <c r="Y106" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF106" t="s" s="2">
         <v>641</v>
       </c>
-      <c r="Z106" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="AA106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF106" t="s" s="2">
-        <v>636</v>
-      </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI106" t="s" s="2">
         <v>105</v>
@@ -15429,13 +15418,13 @@
         <v>82</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>82</v>
@@ -15446,10 +15435,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15460,7 +15449,7 @@
         <v>80</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H107" t="s" s="2">
         <v>82</v>
@@ -15472,20 +15461,16 @@
         <v>82</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>228</v>
+        <v>109</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>646</v>
+        <v>110</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>647</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>648</v>
-      </c>
-      <c r="O107" t="s" s="2">
-        <v>649</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="N107" s="2"/>
+      <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
         <v>82</v>
       </c>
@@ -15509,13 +15494,13 @@
         <v>82</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>231</v>
+        <v>82</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>650</v>
+        <v>82</v>
       </c>
       <c r="Z107" t="s" s="2">
-        <v>651</v>
+        <v>82</v>
       </c>
       <c r="AA107" t="s" s="2">
         <v>82</v>
@@ -15533,31 +15518,31 @@
         <v>82</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>645</v>
+        <v>112</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>643</v>
+        <v>82</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>644</v>
+        <v>82</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>561</v>
+        <v>113</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>82</v>
@@ -15568,21 +15553,21 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>82</v>
@@ -15594,15 +15579,17 @@
         <v>82</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N108" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
         <v>82</v>
@@ -15639,31 +15626,31 @@
         <v>82</v>
       </c>
       <c r="AB108" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="AC108" t="s" s="2">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="AD108" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>82</v>
@@ -15675,7 +15662,7 @@
         <v>82</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>82</v>
@@ -15686,14 +15673,14 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
@@ -15709,21 +15696,23 @@
         <v>82</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>117</v>
+        <v>240</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>118</v>
+        <v>241</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="O109" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="O109" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="P109" t="s" s="2">
         <v>82</v>
       </c>
@@ -15759,19 +15748,19 @@
         <v>82</v>
       </c>
       <c r="AB109" t="s" s="2">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="AC109" t="s" s="2">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="AD109" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>123</v>
+        <v>244</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>80</v>
@@ -15783,7 +15772,7 @@
         <v>105</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="AK109" t="s" s="2">
         <v>82</v>
@@ -15792,10 +15781,10 @@
         <v>82</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>82</v>
+        <v>245</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>107</v>
+        <v>246</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>82</v>
@@ -15806,10 +15795,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15820,7 +15809,7 @@
         <v>80</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>82</v>
@@ -15829,23 +15818,19 @@
         <v>82</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>240</v>
+        <v>110</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="O110" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="N110" s="2"/>
+      <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
         <v>82</v>
       </c>
@@ -15893,19 +15878,19 @@
         <v>82</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>244</v>
+        <v>112</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>82</v>
@@ -15914,10 +15899,10 @@
         <v>82</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>245</v>
+        <v>82</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>246</v>
+        <v>113</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>82</v>
@@ -15928,21 +15913,21 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>82</v>
@@ -15954,15 +15939,17 @@
         <v>82</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N111" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
         <v>82</v>
@@ -15999,31 +15986,31 @@
         <v>82</v>
       </c>
       <c r="AB111" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="AC111" t="s" s="2">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="AD111" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="AK111" t="s" s="2">
         <v>82</v>
@@ -16035,7 +16022,7 @@
         <v>82</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>82</v>
@@ -16046,21 +16033,21 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>82</v>
@@ -16069,21 +16056,23 @@
         <v>82</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>117</v>
+        <v>253</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>118</v>
+        <v>254</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="O112" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="O112" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="P112" t="s" s="2">
         <v>82</v>
       </c>
@@ -16119,31 +16108,31 @@
         <v>82</v>
       </c>
       <c r="AB112" t="s" s="2">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="AC112" t="s" s="2">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="AD112" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>123</v>
+        <v>257</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI112" t="s" s="2">
         <v>105</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>82</v>
@@ -16152,10 +16141,10 @@
         <v>82</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>82</v>
+        <v>258</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>107</v>
+        <v>259</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>82</v>
@@ -16166,10 +16155,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16177,7 +16166,7 @@
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G113" t="s" s="2">
         <v>93</v>
@@ -16192,20 +16181,18 @@
         <v>94</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="O113" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
         <v>82</v>
       </c>
@@ -16253,7 +16240,7 @@
         <v>82</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>80</v>
@@ -16274,10 +16261,10 @@
         <v>82</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>82</v>
@@ -16288,10 +16275,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16299,7 +16286,7 @@
       </c>
       <c r="E114" s="2"/>
       <c r="F114" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G114" t="s" s="2">
         <v>93</v>
@@ -16314,18 +16301,20 @@
         <v>94</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>109</v>
+        <v>173</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="O114" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="O114" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="P114" t="s" s="2">
         <v>82</v>
       </c>
@@ -16373,7 +16362,7 @@
         <v>82</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>80</v>
@@ -16394,10 +16383,10 @@
         <v>82</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>82</v>
@@ -16408,10 +16397,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16419,7 +16408,7 @@
       </c>
       <c r="E115" s="2"/>
       <c r="F115" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G115" t="s" s="2">
         <v>93</v>
@@ -16434,19 +16423,19 @@
         <v>94</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>173</v>
+        <v>109</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="N115" t="s" s="2">
         <v>272</v>
       </c>
       <c r="O115" t="s" s="2">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>82</v>
@@ -16495,7 +16484,7 @@
         <v>82</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
@@ -16516,10 +16505,10 @@
         <v>82</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>82</v>
@@ -16530,10 +16519,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16556,19 +16545,19 @@
         <v>94</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>109</v>
+        <v>287</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="O116" t="s" s="2">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>82</v>
@@ -16617,7 +16606,7 @@
         <v>82</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>80</v>
@@ -16638,10 +16627,10 @@
         <v>82</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>82</v>
@@ -16652,10 +16641,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16678,19 +16667,19 @@
         <v>94</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>287</v>
+        <v>109</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="O117" t="s" s="2">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>82</v>
@@ -16739,7 +16728,7 @@
         <v>82</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>80</v>
@@ -16760,10 +16749,10 @@
         <v>82</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="AO117" t="s" s="2">
         <v>82</v>
@@ -16774,10 +16763,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16797,22 +16786,22 @@
         <v>82</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>109</v>
+        <v>660</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>297</v>
+        <v>661</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>298</v>
+        <v>662</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>299</v>
+        <v>663</v>
       </c>
       <c r="O118" t="s" s="2">
-        <v>300</v>
+        <v>664</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>82</v>
@@ -16861,7 +16850,7 @@
         <v>82</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>301</v>
+        <v>659</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>80</v>
@@ -16873,7 +16862,7 @@
         <v>105</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>106</v>
+        <v>665</v>
       </c>
       <c r="AK118" t="s" s="2">
         <v>82</v>
@@ -16882,10 +16871,10 @@
         <v>82</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>302</v>
+        <v>666</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>303</v>
+        <v>667</v>
       </c>
       <c r="AO118" t="s" s="2">
         <v>82</v>
@@ -16896,10 +16885,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16922,20 +16911,18 @@
         <v>82</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>664</v>
+        <v>109</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>667</v>
-      </c>
-      <c r="O119" t="s" s="2">
-        <v>668</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="O119" s="2"/>
       <c r="P119" t="s" s="2">
         <v>82</v>
       </c>
@@ -16983,7 +16970,7 @@
         <v>82</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>80</v>
@@ -16995,7 +16982,7 @@
         <v>105</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>669</v>
+        <v>106</v>
       </c>
       <c r="AK119" t="s" s="2">
         <v>82</v>
@@ -17004,7 +16991,7 @@
         <v>82</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>670</v>
+        <v>626</v>
       </c>
       <c r="AN119" t="s" s="2">
         <v>671</v>
@@ -17032,7 +17019,7 @@
         <v>80</v>
       </c>
       <c r="G120" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H120" t="s" s="2">
         <v>82</v>
@@ -17041,19 +17028,19 @@
         <v>82</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>109</v>
+        <v>673</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>272</v>
+        <v>676</v>
       </c>
       <c r="O120" s="2"/>
       <c r="P120" t="s" s="2">
@@ -17109,13 +17096,13 @@
         <v>80</v>
       </c>
       <c r="AH120" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI120" t="s" s="2">
         <v>105</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>106</v>
+        <v>330</v>
       </c>
       <c r="AK120" t="s" s="2">
         <v>82</v>
@@ -17124,10 +17111,10 @@
         <v>82</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>630</v>
+        <v>677</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="AO120" t="s" s="2">
         <v>82</v>
@@ -17138,10 +17125,10 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -17164,16 +17151,16 @@
         <v>94</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="O121" s="2"/>
       <c r="P121" t="s" s="2">
@@ -17223,7 +17210,7 @@
         <v>82</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>80</v>
@@ -17235,7 +17222,7 @@
         <v>105</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="AK121" t="s" s="2">
         <v>82</v>
@@ -17244,10 +17231,10 @@
         <v>82</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="AO121" t="s" s="2">
         <v>82</v>
@@ -17258,10 +17245,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17275,7 +17262,7 @@
         <v>81</v>
       </c>
       <c r="H122" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I122" t="s" s="2">
         <v>82</v>
@@ -17284,10 +17271,10 @@
         <v>94</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>684</v>
+        <v>604</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="M122" t="s" s="2">
         <v>686</v>
@@ -17295,7 +17282,9 @@
       <c r="N122" t="s" s="2">
         <v>687</v>
       </c>
-      <c r="O122" s="2"/>
+      <c r="O122" t="s" s="2">
+        <v>688</v>
+      </c>
       <c r="P122" t="s" s="2">
         <v>82</v>
       </c>
@@ -17343,7 +17332,7 @@
         <v>82</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>80</v>
@@ -17355,7 +17344,7 @@
         <v>105</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>334</v>
+        <v>689</v>
       </c>
       <c r="AK122" t="s" s="2">
         <v>82</v>
@@ -17364,10 +17353,10 @@
         <v>82</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>681</v>
+        <v>690</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>82</v>
@@ -17378,10 +17367,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17392,32 +17381,28 @@
         <v>80</v>
       </c>
       <c r="G123" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H123" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I123" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>608</v>
+        <v>109</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>690</v>
+        <v>110</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>690</v>
-      </c>
-      <c r="N123" t="s" s="2">
-        <v>691</v>
-      </c>
-      <c r="O123" t="s" s="2">
-        <v>692</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="N123" s="2"/>
+      <c r="O123" s="2"/>
       <c r="P123" t="s" s="2">
         <v>82</v>
       </c>
@@ -17465,19 +17450,19 @@
         <v>82</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>689</v>
+        <v>112</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH123" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI123" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>693</v>
+        <v>82</v>
       </c>
       <c r="AK123" t="s" s="2">
         <v>82</v>
@@ -17486,10 +17471,10 @@
         <v>82</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>694</v>
+        <v>82</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>695</v>
+        <v>113</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>82</v>
@@ -17500,21 +17485,21 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G124" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H124" t="s" s="2">
         <v>82</v>
@@ -17526,15 +17511,17 @@
         <v>82</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N124" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="N124" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="O124" s="2"/>
       <c r="P124" t="s" s="2">
         <v>82</v>
@@ -17571,31 +17558,31 @@
         <v>82</v>
       </c>
       <c r="AB124" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="AC124" t="s" s="2">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="AD124" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH124" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="AK124" t="s" s="2">
         <v>82</v>
@@ -17607,7 +17594,7 @@
         <v>82</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="AO124" t="s" s="2">
         <v>82</v>
@@ -17618,14 +17605,14 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
-        <v>115</v>
+        <v>615</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" t="s" s="2">
@@ -17638,24 +17625,26 @@
         <v>82</v>
       </c>
       <c r="I125" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K125" t="s" s="2">
         <v>116</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>117</v>
+        <v>616</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>118</v>
+        <v>617</v>
       </c>
       <c r="N125" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="O125" s="2"/>
+      <c r="O125" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="P125" t="s" s="2">
         <v>82</v>
       </c>
@@ -17691,19 +17680,19 @@
         <v>82</v>
       </c>
       <c r="AB125" t="s" s="2">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="AC125" t="s" s="2">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="AD125" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>123</v>
+        <v>618</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>80</v>
@@ -17738,45 +17727,45 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
-        <v>619</v>
+        <v>82</v>
       </c>
       <c r="E126" s="2"/>
       <c r="F126" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G126" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H126" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I126" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="J126" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>116</v>
+        <v>228</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>620</v>
+        <v>696</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>621</v>
+        <v>697</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>119</v>
+        <v>698</v>
       </c>
       <c r="O126" t="s" s="2">
-        <v>316</v>
+        <v>699</v>
       </c>
       <c r="P126" t="s" s="2">
         <v>82</v>
@@ -17801,13 +17790,13 @@
         <v>82</v>
       </c>
       <c r="X126" t="s" s="2">
-        <v>82</v>
+        <v>153</v>
       </c>
       <c r="Y126" t="s" s="2">
-        <v>82</v>
+        <v>700</v>
       </c>
       <c r="Z126" t="s" s="2">
-        <v>82</v>
+        <v>701</v>
       </c>
       <c r="AA126" t="s" s="2">
         <v>82</v>
@@ -17825,34 +17814,34 @@
         <v>82</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>622</v>
+        <v>695</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="AH126" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI126" t="s" s="2">
         <v>105</v>
       </c>
       <c r="AJ126" t="s" s="2">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="AK126" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>82</v>
+        <v>702</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>82</v>
+        <v>401</v>
       </c>
       <c r="AN126" t="s" s="2">
-        <v>107</v>
+        <v>402</v>
       </c>
       <c r="AO126" t="s" s="2">
-        <v>82</v>
+        <v>403</v>
       </c>
       <c r="AP126" t="s" s="2">
         <v>82</v>
@@ -17860,10 +17849,10 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -17871,7 +17860,7 @@
       </c>
       <c r="E127" s="2"/>
       <c r="F127" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G127" t="s" s="2">
         <v>93</v>
@@ -17886,19 +17875,19 @@
         <v>94</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>228</v>
+        <v>704</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="O127" t="s" s="2">
-        <v>703</v>
+        <v>476</v>
       </c>
       <c r="P127" t="s" s="2">
         <v>82</v>
@@ -17926,10 +17915,10 @@
         <v>153</v>
       </c>
       <c r="Y127" t="s" s="2">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="Z127" t="s" s="2">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="AA127" t="s" s="2">
         <v>82</v>
@@ -17947,16 +17936,16 @@
         <v>82</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AI127" t="s" s="2">
-        <v>105</v>
+        <v>710</v>
       </c>
       <c r="AJ127" t="s" s="2">
         <v>106</v>
@@ -17965,27 +17954,27 @@
         <v>82</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="AM127" t="s" s="2">
-        <v>405</v>
+        <v>479</v>
       </c>
       <c r="AN127" t="s" s="2">
-        <v>406</v>
+        <v>480</v>
       </c>
       <c r="AO127" t="s" s="2">
-        <v>407</v>
+        <v>82</v>
       </c>
       <c r="AP127" t="s" s="2">
-        <v>82</v>
+        <v>481</v>
       </c>
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -18005,22 +17994,22 @@
         <v>82</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>708</v>
+        <v>228</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="O128" t="s" s="2">
-        <v>480</v>
+        <v>531</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>82</v>
@@ -18048,29 +18037,29 @@
         <v>153</v>
       </c>
       <c r="Y128" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="Z128" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AA128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF128" t="s" s="2">
         <v>712</v>
       </c>
-      <c r="Z128" t="s" s="2">
-        <v>713</v>
-      </c>
-      <c r="AA128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF128" t="s" s="2">
-        <v>707</v>
-      </c>
       <c r="AG128" t="s" s="2">
         <v>80</v>
       </c>
@@ -18078,7 +18067,7 @@
         <v>93</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="AJ128" t="s" s="2">
         <v>106</v>
@@ -18087,41 +18076,41 @@
         <v>82</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>715</v>
+        <v>82</v>
       </c>
       <c r="AM128" t="s" s="2">
-        <v>483</v>
+        <v>107</v>
       </c>
       <c r="AN128" t="s" s="2">
-        <v>484</v>
+        <v>535</v>
       </c>
       <c r="AO128" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP128" t="s" s="2">
-        <v>485</v>
+        <v>82</v>
       </c>
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
-        <v>82</v>
+        <v>548</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G129" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H129" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I129" t="s" s="2">
         <v>82</v>
@@ -18133,16 +18122,16 @@
         <v>228</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>717</v>
+        <v>549</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>718</v>
+        <v>550</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>719</v>
+        <v>551</v>
       </c>
       <c r="O129" t="s" s="2">
-        <v>535</v>
+        <v>552</v>
       </c>
       <c r="P129" t="s" s="2">
         <v>82</v>
@@ -18170,10 +18159,10 @@
         <v>153</v>
       </c>
       <c r="Y129" t="s" s="2">
-        <v>536</v>
+        <v>553</v>
       </c>
       <c r="Z129" t="s" s="2">
-        <v>537</v>
+        <v>554</v>
       </c>
       <c r="AA129" t="s" s="2">
         <v>82</v>
@@ -18191,16 +18180,16 @@
         <v>82</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH129" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI129" t="s" s="2">
-        <v>720</v>
+        <v>105</v>
       </c>
       <c r="AJ129" t="s" s="2">
         <v>106</v>
@@ -18209,31 +18198,31 @@
         <v>82</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>82</v>
+        <v>555</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>107</v>
+        <v>556</v>
       </c>
       <c r="AN129" t="s" s="2">
-        <v>539</v>
+        <v>557</v>
       </c>
       <c r="AO129" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP129" t="s" s="2">
-        <v>82</v>
+        <v>558</v>
       </c>
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
-        <v>552</v>
+        <v>82</v>
       </c>
       <c r="E130" s="2"/>
       <c r="F130" t="s" s="2">
@@ -18252,19 +18241,19 @@
         <v>82</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>228</v>
+        <v>83</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>553</v>
+        <v>719</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>554</v>
+        <v>720</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>555</v>
+        <v>607</v>
       </c>
       <c r="O130" t="s" s="2">
-        <v>556</v>
+        <v>608</v>
       </c>
       <c r="P130" t="s" s="2">
         <v>82</v>
@@ -18289,13 +18278,13 @@
         <v>82</v>
       </c>
       <c r="X130" t="s" s="2">
-        <v>153</v>
+        <v>82</v>
       </c>
       <c r="Y130" t="s" s="2">
-        <v>557</v>
+        <v>82</v>
       </c>
       <c r="Z130" t="s" s="2">
-        <v>558</v>
+        <v>82</v>
       </c>
       <c r="AA130" t="s" s="2">
         <v>82</v>
@@ -18313,7 +18302,7 @@
         <v>82</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>80</v>
@@ -18322,154 +18311,32 @@
         <v>81</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AJ130" t="s" s="2">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="AK130" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>559</v>
+        <v>82</v>
       </c>
       <c r="AM130" t="s" s="2">
-        <v>560</v>
+        <v>610</v>
       </c>
       <c r="AN130" t="s" s="2">
-        <v>561</v>
+        <v>611</v>
       </c>
       <c r="AO130" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP130" t="s" s="2">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="131" hidden="true">
-      <c r="A131" t="s" s="2">
-        <v>722</v>
-      </c>
-      <c r="B131" t="s" s="2">
-        <v>722</v>
-      </c>
-      <c r="C131" s="2"/>
-      <c r="D131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E131" s="2"/>
-      <c r="F131" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G131" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K131" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="L131" t="s" s="2">
-        <v>723</v>
-      </c>
-      <c r="M131" t="s" s="2">
-        <v>724</v>
-      </c>
-      <c r="N131" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="O131" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="P131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q131" s="2"/>
-      <c r="R131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF131" t="s" s="2">
-        <v>722</v>
-      </c>
-      <c r="AG131" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH131" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM131" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="AN131" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="AO131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP131" t="s" s="2">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP131">
+  <autoFilter ref="A1:AP130">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -18479,7 +18346,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI130">
+  <conditionalFormatting sqref="A2:AI129">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-glucose.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-glucose.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T16:39:06+00:00</t>
+    <t>2024-12-11T17:02:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-glucose.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-glucose.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T17:02:02+00:00</t>
+    <t>2024-12-11T17:11:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -673,7 +673,7 @@
     <t>Motif de la mesure</t>
   </si>
   <si>
-    <t>Extension du Motif de la mesure, exprimé en texte libre  (ex. diabète, surpoids, maladie du cœur et des vaisseaux, cholestérol…).</t>
+    <t>Extension du Motif de la mesure, exprimé en texte libre.</t>
   </si>
   <si>
     <t>Observation.extension:MesMomentOfMeasurement</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-glucose.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-glucose.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T17:11:59+00:00</t>
+    <t>2024-12-13T13:36:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-glucose.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-glucose.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-13T13:36:15+00:00</t>
+    <t>2024-12-13T13:38:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-glucose.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-glucose.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-13T13:38:24+00:00</t>
+    <t>2024-12-13T13:39:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-glucose.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-glucose.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-13T13:39:29+00:00</t>
+    <t>2024-12-13T13:45:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
